--- a/ReferenceFiles/TaskLists/gtProductAssembly011619.xlsx
+++ b/ReferenceFiles/TaskLists/gtProductAssembly011619.xlsx
@@ -4,26 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="0" windowWidth="17520" windowHeight="15520" activeTab="3"/>
+    <workbookView xWindow="640" yWindow="0" windowWidth="17520" windowHeight="15520"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
-    <sheet name="tasks" sheetId="8" r:id="rId2"/>
-    <sheet name="components" sheetId="5" r:id="rId3"/>
-    <sheet name="products" sheetId="6" r:id="rId4"/>
-    <sheet name="parts" sheetId="7" r:id="rId5"/>
+    <sheet name="tasks" sheetId="8" r:id="rId1"/>
+    <sheet name="components" sheetId="5" r:id="rId2"/>
+    <sheet name="products" sheetId="6" r:id="rId3"/>
+    <sheet name="parts" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Parts">Table134[Part]</definedName>
+    <definedName name="Product_Table">Table13[#All]</definedName>
     <definedName name="Products">Table13[Product]</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2010-2014 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"packing-slip.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Packing Slip Template"</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="152">
   <si>
     <t>Product</t>
   </si>
@@ -489,21 +486,6 @@
   </si>
   <si>
     <t>Cumulative Hours</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of Minutes per Unit</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>(blank)</t>
   </si>
 </sst>
 </file>
@@ -861,7 +843,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="158">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1026,8 +1008,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1041,13 +1025,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="158">
+  <cellStyles count="160">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -1189,6 +1171,8 @@
     <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
@@ -1296,1649 +1280,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Xandra Best" refreshedDate="43481.550307060184" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="112">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table15"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="Packaged Product" numFmtId="0">
-      <sharedItems count="67">
-        <s v="Xtra Packset"/>
-        <s v="Booster Set"/>
-        <s v="Blue Banox Vest Set"/>
-        <s v="Gree Banox Vest Set"/>
-        <s v="Gray Banox Vest Set"/>
-        <s v="Tan Banox Vest Set"/>
-        <s v="Blue Safety Vest Set"/>
-        <s v="Orange Safety Vest Set"/>
-        <s v="White Concealable Vest Set"/>
-        <s v="Kids Blue Vest Set"/>
-        <s v="Kids Orange Vest Set"/>
-        <s v="Kids Pink Vest Set"/>
-        <s v="Kids Red Vest Set"/>
-        <s v="Kids Tan Vest Set"/>
-        <s v="Kids White Vest Set"/>
-        <s v="Kids Yellow Vest Set"/>
-        <s v="HiVis Original Vest Set"/>
-        <s v="Orange Banox Vest Set"/>
-        <s v="Pink Original Vest Set"/>
-        <s v="Red Original Vest Set"/>
-        <s v="Tan Khaki Vest Set"/>
-        <s v="Blue Sport Vest Set"/>
-        <s v="Gray Sport Vest Set"/>
-        <s v="Red Sport Vest Set"/>
-        <s v="Blue Sport Vest Set - Old"/>
-        <s v="Green Sport Vest Set"/>
-        <s v="Orange Sport Vest Set"/>
-        <s v="Red Sport Vest Set - Old"/>
-        <s v="Xtra Disposable Pack Set"/>
-        <s v="Xtra Flex Vest Pack Set"/>
-        <s v="Xtra Kids Pack Set"/>
-        <s v="White Disposable Vest Se"/>
-        <s v="Gray Banox Vest Set - Old"/>
-        <s v="Nail Stop"/>
-        <s v="Xtra Chilly Dog Pack Set"/>
-        <s v="Xtra Chilly Pup Pack Set"/>
-        <s v="Xtra Flex Vest Pack Set - small"/>
-        <s v="Black Chilly Dog Vest Set"/>
-        <s v="Tan Chilly Dog Vest Set"/>
-        <s v="HiVis Chilly Dog Vest Set"/>
-        <s v="Orange Chilly Dog Vest Set"/>
-        <s v="Black Chilly Pup Vest Set"/>
-        <s v="Black Extender Set - Buckle"/>
-        <s v="Black Extender Set - Kids"/>
-        <s v="White Extender Set - Kids"/>
-        <s v="Black Extender Set "/>
-        <s v="Black Extender Set - Sport"/>
-        <s v="White Extender Set "/>
-        <s v="White Extender Set - Sport"/>
-        <s v="Black 2XL Vest Set"/>
-        <s v="Gray 2XL Vest Set"/>
-        <s v="HiVis 2XL Vest Set"/>
-        <s v="Black Large Vest Set"/>
-        <s v="Gray Large Vest Set"/>
-        <s v="HiVis Large Vest Set"/>
-        <s v="White Large Vest Set"/>
-        <s v="Black Medium Vest Set"/>
-        <s v="Gray Medium Vest Set"/>
-        <s v="HiVis Medium Vest Set"/>
-        <s v="White Medium Vest Set"/>
-        <s v="Black Small Vest Set"/>
-        <s v="Gray Small Vest Set"/>
-        <s v="White Small Vest Set"/>
-        <s v="Black XL Vest Set"/>
-        <s v="Gray XL Vest Set"/>
-        <s v="HiVis XL Vest Set"/>
-        <s v="White XL Vest Set"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Convert" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="250"/>
-    </cacheField>
-    <cacheField name="Priority" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
-    </cacheField>
-    <cacheField name="Minutes per Unit" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="8" count="6">
-        <n v="5"/>
-        <n v="4"/>
-        <n v="8"/>
-        <n v="3"/>
-        <m/>
-        <n v="2"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Total Minutes" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1250"/>
-    </cacheField>
-    <cacheField name="Total Hours" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="20.833333333333332"/>
-    </cacheField>
-    <cacheField name="Cumulative Hours" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="20.833333333333332" maxValue="588"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="112">
-  <r>
-    <x v="0"/>
-    <n v="250"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="1250"/>
-    <n v="20.833333333333332"/>
-    <n v="20.833333333333332"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="120"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="28.833333333333332"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="36.833333333333329"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="44.833333333333329"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="52.833333333333329"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="60.833333333333329"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="68.833333333333329"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="25"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="200"/>
-    <n v="3.3333333333333335"/>
-    <n v="72.166666666666657"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="80.166666666666657"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="20"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="80"/>
-    <n v="1.3333333333333333"/>
-    <n v="81.499999999999986"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="30"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="120"/>
-    <n v="2"/>
-    <n v="83.499999999999986"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="10"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="40"/>
-    <n v="0.66666666666666663"/>
-    <n v="84.166666666666657"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="1"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="6.6666666666666666E-2"/>
-    <n v="84.23333333333332"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="24"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="96"/>
-    <n v="1.6"/>
-    <n v="85.833333333333314"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="240"/>
-    <n v="4"/>
-    <n v="89.833333333333314"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <n v="42"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="168"/>
-    <n v="2.8"/>
-    <n v="92.633333333333312"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="100.63333333333331"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="20"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="160"/>
-    <n v="2.6666666666666665"/>
-    <n v="103.29999999999998"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <n v="19"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="152"/>
-    <n v="2.5333333333333332"/>
-    <n v="105.83333333333331"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <n v="18"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="144"/>
-    <n v="2.4"/>
-    <n v="108.23333333333332"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="116.23333333333332"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="124.23333333333332"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="132.23333333333332"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <n v="60"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="140.23333333333332"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <n v="33"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="264"/>
-    <n v="4.4000000000000004"/>
-    <n v="144.63333333333333"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <n v="21"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="168"/>
-    <n v="2.8"/>
-    <n v="147.43333333333334"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <n v="42"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="336"/>
-    <n v="5.6"/>
-    <n v="153.03333333333333"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <n v="15"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="120"/>
-    <n v="2"/>
-    <n v="155.03333333333333"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="250"/>
-    <n v="2"/>
-    <x v="0"/>
-    <n v="1250"/>
-    <n v="20.833333333333332"/>
-    <n v="175.86666666666667"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="60"/>
-    <n v="2"/>
-    <x v="1"/>
-    <n v="240"/>
-    <n v="4"/>
-    <n v="179.86666666666667"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <n v="20"/>
-    <n v="2"/>
-    <x v="3"/>
-    <n v="60"/>
-    <n v="1"/>
-    <n v="180.86666666666667"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <n v="50"/>
-    <n v="2"/>
-    <x v="3"/>
-    <n v="150"/>
-    <n v="2.5"/>
-    <n v="183.36666666666667"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <n v="50"/>
-    <n v="2"/>
-    <x v="3"/>
-    <n v="150"/>
-    <n v="2.5"/>
-    <n v="185.86666666666667"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="60"/>
-    <n v="2"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="193.86666666666667"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="60"/>
-    <n v="2"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="201.86666666666667"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="60"/>
-    <n v="2"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="209.86666666666667"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="60"/>
-    <n v="2"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="217.86666666666667"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <n v="60"/>
-    <n v="2"/>
-    <x v="1"/>
-    <n v="240"/>
-    <n v="4"/>
-    <n v="221.86666666666667"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <n v="60"/>
-    <n v="2"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="229.86666666666667"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <n v="60"/>
-    <n v="2"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="237.86666666666667"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <n v="60"/>
-    <n v="2"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="245.86666666666667"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <n v="60"/>
-    <n v="2"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="253.86666666666667"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <n v="50"/>
-    <n v="3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="253.86666666666667"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="250"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="1250"/>
-    <n v="20.833333333333332"/>
-    <n v="274.7"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="240"/>
-    <n v="4"/>
-    <n v="278.7"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="180"/>
-    <n v="3"/>
-    <n v="281.7"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="180"/>
-    <n v="3"/>
-    <n v="284.7"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <n v="10"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="30"/>
-    <n v="0.5"/>
-    <n v="285.2"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <n v="18"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="54"/>
-    <n v="0.9"/>
-    <n v="286.09999999999997"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="294.09999999999997"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="302.09999999999997"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="310.09999999999997"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="318.09999999999997"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <n v="19"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="57"/>
-    <n v="0.95"/>
-    <n v="319.04999999999995"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <n v="18"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="54"/>
-    <n v="0.9"/>
-    <n v="319.94999999999993"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <n v="22"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="66"/>
-    <n v="1.1000000000000001"/>
-    <n v="321.04999999999995"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <n v="11"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="33"/>
-    <n v="0.55000000000000004"/>
-    <n v="321.59999999999997"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <n v="24"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="192"/>
-    <n v="3.2"/>
-    <n v="324.79999999999995"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="332.79999999999995"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="340.79999999999995"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="348.79999999999995"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="5"/>
-    <n v="120"/>
-    <n v="2"/>
-    <n v="350.79999999999995"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <n v="10"/>
-    <n v="3"/>
-    <x v="5"/>
-    <n v="20"/>
-    <n v="0.33333333333333331"/>
-    <n v="351.13333333333327"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <n v="10"/>
-    <n v="3"/>
-    <x v="5"/>
-    <n v="20"/>
-    <n v="0.33333333333333331"/>
-    <n v="351.46666666666658"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <n v="30"/>
-    <n v="3"/>
-    <x v="5"/>
-    <n v="60"/>
-    <n v="1"/>
-    <n v="352.46666666666658"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <n v="30"/>
-    <n v="3"/>
-    <x v="5"/>
-    <n v="60"/>
-    <n v="1"/>
-    <n v="353.46666666666658"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <n v="10"/>
-    <n v="3"/>
-    <x v="5"/>
-    <n v="20"/>
-    <n v="0.33333333333333331"/>
-    <n v="353.7999999999999"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <n v="5"/>
-    <n v="3"/>
-    <x v="5"/>
-    <n v="10"/>
-    <n v="0.16666666666666666"/>
-    <n v="353.96666666666658"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <n v="50"/>
-    <n v="4"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="353.96666666666658"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="250"/>
-    <n v="4"/>
-    <x v="0"/>
-    <n v="1250"/>
-    <n v="20.833333333333332"/>
-    <n v="374.7999999999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="240"/>
-    <n v="4"/>
-    <n v="378.7999999999999"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="3"/>
-    <n v="180"/>
-    <n v="3"/>
-    <n v="381.7999999999999"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="3"/>
-    <n v="180"/>
-    <n v="3"/>
-    <n v="384.7999999999999"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="392.7999999999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="400.7999999999999"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="408.7999999999999"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="416.7999999999999"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="424.7999999999999"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <n v="10"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="40"/>
-    <n v="0.66666666666666663"/>
-    <n v="425.46666666666658"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <n v="10"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="40"/>
-    <n v="0.66666666666666663"/>
-    <n v="426.13333333333327"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <n v="10"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="40"/>
-    <n v="0.66666666666666663"/>
-    <n v="426.79999999999995"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <n v="40"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="160"/>
-    <n v="2.6666666666666665"/>
-    <n v="429.46666666666664"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <n v="20"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="80"/>
-    <n v="1.3333333333333333"/>
-    <n v="430.79999999999995"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <n v="20"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="80"/>
-    <n v="1.3333333333333333"/>
-    <n v="432.13333333333327"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <n v="40"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="160"/>
-    <n v="2.6666666666666665"/>
-    <n v="434.79999999999995"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <n v="40"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="160"/>
-    <n v="2.6666666666666665"/>
-    <n v="437.46666666666664"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <n v="20"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="80"/>
-    <n v="1.3333333333333333"/>
-    <n v="438.79999999999995"/>
-  </r>
-  <r>
-    <x v="57"/>
-    <n v="20"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="80"/>
-    <n v="1.3333333333333333"/>
-    <n v="440.13333333333327"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <n v="20"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="80"/>
-    <n v="1.3333333333333333"/>
-    <n v="441.46666666666658"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <n v="20"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="80"/>
-    <n v="1.3333333333333333"/>
-    <n v="442.7999999999999"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <n v="10"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="40"/>
-    <n v="0.66666666666666663"/>
-    <n v="443.46666666666658"/>
-  </r>
-  <r>
-    <x v="61"/>
-    <n v="10"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="40"/>
-    <n v="0.66666666666666663"/>
-    <n v="444.13333333333327"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <n v="10"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="40"/>
-    <n v="0.66666666666666663"/>
-    <n v="444.79999999999995"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <n v="10"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="40"/>
-    <n v="0.66666666666666663"/>
-    <n v="445.46666666666664"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <n v="10"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="40"/>
-    <n v="0.66666666666666663"/>
-    <n v="446.13333333333333"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <n v="10"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="40"/>
-    <n v="0.66666666666666663"/>
-    <n v="446.8"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <n v="20"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="80"/>
-    <n v="1.3333333333333333"/>
-    <n v="448.13333333333333"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="33"/>
-    <n v="4"/>
-    <x v="1"/>
-    <n v="132"/>
-    <n v="2.2000000000000002"/>
-    <n v="450.33333333333331"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="458.33333333333331"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="466.33333333333331"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="474.33333333333331"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="482.33333333333331"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="490.33333333333331"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="250"/>
-    <n v="5"/>
-    <x v="0"/>
-    <n v="1250"/>
-    <n v="20.833333333333332"/>
-    <n v="511.16666666666663"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="60"/>
-    <n v="5"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="519.16666666666663"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="60"/>
-    <n v="5"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="527.16666666666663"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="60"/>
-    <n v="5"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="535.16666666666663"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="60"/>
-    <n v="5"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="543.16666666666663"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <n v="60"/>
-    <n v="5"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="551.16666666666663"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <n v="60"/>
-    <n v="5"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="559.16666666666663"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <n v="60"/>
-    <n v="5"/>
-    <x v="2"/>
-    <n v="480"/>
-    <n v="8"/>
-    <n v="567.16666666666663"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="250"/>
-    <n v="6"/>
-    <x v="0"/>
-    <n v="1250"/>
-    <n v="20.833333333333332"/>
-    <n v="588"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:B139" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="68">
-        <item x="49"/>
-        <item x="37"/>
-        <item x="41"/>
-        <item x="45"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="46"/>
-        <item x="52"/>
-        <item x="56"/>
-        <item x="60"/>
-        <item x="63"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="1"/>
-        <item x="50"/>
-        <item x="4"/>
-        <item x="32"/>
-        <item x="53"/>
-        <item x="57"/>
-        <item x="61"/>
-        <item x="22"/>
-        <item x="64"/>
-        <item x="3"/>
-        <item x="25"/>
-        <item x="51"/>
-        <item x="39"/>
-        <item x="54"/>
-        <item x="58"/>
-        <item x="16"/>
-        <item x="65"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="33"/>
-        <item x="17"/>
-        <item x="40"/>
-        <item x="7"/>
-        <item x="26"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="27"/>
-        <item x="5"/>
-        <item x="38"/>
-        <item x="20"/>
-        <item x="8"/>
-        <item x="31"/>
-        <item x="47"/>
-        <item x="44"/>
-        <item x="48"/>
-        <item x="55"/>
-        <item x="59"/>
-        <item x="62"/>
-        <item x="66"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="36"/>
-        <item x="30"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="135">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Minutes per Unit" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3229,1124 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B139"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A139"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="9">
-        <v>2</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="9">
-        <v>2</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="9">
-        <v>4</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="9">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="9">
-        <v>4</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="9">
-        <v>4</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="9">
-        <v>8</v>
-      </c>
-      <c r="B28" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="9">
-        <v>8</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="9">
-        <v>8</v>
-      </c>
-      <c r="B32" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="9">
-        <v>8</v>
-      </c>
-      <c r="B34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="9">
-        <v>4</v>
-      </c>
-      <c r="B36" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="9">
-        <v>4</v>
-      </c>
-      <c r="B38" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="9">
-        <v>8</v>
-      </c>
-      <c r="B40" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="9">
-        <v>8</v>
-      </c>
-      <c r="B42" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="9">
-        <v>4</v>
-      </c>
-      <c r="B44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="9">
-        <v>4</v>
-      </c>
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="9">
-        <v>4</v>
-      </c>
-      <c r="B48" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="9">
-        <v>8</v>
-      </c>
-      <c r="B50" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="9">
-        <v>4</v>
-      </c>
-      <c r="B52" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="9">
-        <v>8</v>
-      </c>
-      <c r="B54" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="9">
-        <v>8</v>
-      </c>
-      <c r="B56" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="9">
-        <v>4</v>
-      </c>
-      <c r="B58" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="9">
-        <v>3</v>
-      </c>
-      <c r="B60" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="9">
-        <v>4</v>
-      </c>
-      <c r="B62" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="9">
-        <v>4</v>
-      </c>
-      <c r="B64" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="9">
-        <v>8</v>
-      </c>
-      <c r="B66" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="9">
-        <v>4</v>
-      </c>
-      <c r="B68" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="9">
-        <v>4</v>
-      </c>
-      <c r="B70" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="9">
-        <v>4</v>
-      </c>
-      <c r="B72" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="9">
-        <v>4</v>
-      </c>
-      <c r="B74" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="9">
-        <v>4</v>
-      </c>
-      <c r="B76" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="9">
-        <v>4</v>
-      </c>
-      <c r="B78" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="9">
-        <v>4</v>
-      </c>
-      <c r="B80" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="9">
-        <v>4</v>
-      </c>
-      <c r="B82" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="9">
-        <v>8</v>
-      </c>
-      <c r="B86" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="9">
-        <v>3</v>
-      </c>
-      <c r="B88" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="9">
-        <v>8</v>
-      </c>
-      <c r="B90" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="9">
-        <v>8</v>
-      </c>
-      <c r="B92" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B93" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="9">
-        <v>8</v>
-      </c>
-      <c r="B94" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="9">
-        <v>8</v>
-      </c>
-      <c r="B96" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="9">
-        <v>8</v>
-      </c>
-      <c r="B98" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B99" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="9">
-        <v>8</v>
-      </c>
-      <c r="B100" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="9">
-        <v>8</v>
-      </c>
-      <c r="B102" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="9">
-        <v>3</v>
-      </c>
-      <c r="B104" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="9">
-        <v>8</v>
-      </c>
-      <c r="B106" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B107" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="9">
-        <v>8</v>
-      </c>
-      <c r="B108" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="9">
-        <v>4</v>
-      </c>
-      <c r="B110" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B111" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="9">
-        <v>2</v>
-      </c>
-      <c r="B112" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B113" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="9">
-        <v>2</v>
-      </c>
-      <c r="B114" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B115" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="9">
-        <v>2</v>
-      </c>
-      <c r="B116" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="9">
-        <v>4</v>
-      </c>
-      <c r="B118" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B119" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="9">
-        <v>4</v>
-      </c>
-      <c r="B120" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B121" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="9">
-        <v>4</v>
-      </c>
-      <c r="B122" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B123" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="9">
-        <v>4</v>
-      </c>
-      <c r="B124" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="9">
-        <v>3</v>
-      </c>
-      <c r="B126" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="9">
-        <v>3</v>
-      </c>
-      <c r="B128" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B129" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="9">
-        <v>3</v>
-      </c>
-      <c r="B130" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="9">
-        <v>3</v>
-      </c>
-      <c r="B132" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B133" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="9">
-        <v>3</v>
-      </c>
-      <c r="B134" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="9">
-        <v>3</v>
-      </c>
-      <c r="B136" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="9">
-        <v>5</v>
-      </c>
-      <c r="B138" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B139" s="8">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4394,14 +1621,15 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E2">
-        <f>D2*B2</f>
+        <f t="shared" ref="E2:E33" si="0">D2*B2</f>
         <v>1250</v>
       </c>
       <c r="F2" s="4">
-        <f>E2/60</f>
+        <f t="shared" ref="F2:F33" si="1">E2/60</f>
         <v>20.833333333333332</v>
       </c>
       <c r="G2" s="4">
@@ -4420,14 +1648,15 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E3">
-        <f>D3*B3</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F3" s="4">
-        <f>E3/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G3" s="4">
@@ -4446,14 +1675,15 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E4">
-        <f>D4*B4</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F4" s="4">
-        <f>E4/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -4472,14 +1702,15 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E5">
-        <f>D5*B5</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F5" s="4">
-        <f>E5/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G5" s="4">
@@ -4498,14 +1729,15 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E6">
-        <f>D6*B6</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F6" s="4">
-        <f>E6/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G6" s="4">
@@ -4524,14 +1756,15 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E7">
-        <f>D7*B7</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F7" s="4">
-        <f>E7/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G7" s="4">
@@ -4550,14 +1783,15 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E8">
-        <f>D8*B8</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F8" s="4">
-        <f>E8/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G8" s="4">
@@ -4576,14 +1810,15 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E9">
-        <f>D9*B9</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="F9" s="4">
-        <f>E9/60</f>
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="G9" s="4">
@@ -4602,14 +1837,15 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E10">
-        <f>D10*B10</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F10" s="4">
-        <f>E10/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G10" s="4">
@@ -4628,14 +1864,15 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E11">
-        <f>D11*B11</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="F11" s="4">
-        <f>E11/60</f>
+        <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G11" s="4">
@@ -4654,14 +1891,15 @@
         <v>1</v>
       </c>
       <c r="D12">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E12">
-        <f>D12*B12</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F12" s="4">
-        <f>E12/60</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G12" s="4">
@@ -4680,14 +1918,15 @@
         <v>1</v>
       </c>
       <c r="D13">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E13">
-        <f>D13*B13</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F13" s="4">
-        <f>E13/60</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G13" s="4">
@@ -4706,14 +1945,15 @@
         <v>1</v>
       </c>
       <c r="D14">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E14">
-        <f>D14*B14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F14" s="4">
-        <f>E14/60</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="G14" s="4">
@@ -4732,14 +1972,15 @@
         <v>1</v>
       </c>
       <c r="D15">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E15">
-        <f>D15*B15</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="F15" s="4">
-        <f>E15/60</f>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="G15" s="4">
@@ -4758,14 +1999,15 @@
         <v>1</v>
       </c>
       <c r="D16">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E16">
-        <f>D16*B16</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="F16" s="4">
-        <f>E16/60</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G16" s="4">
@@ -4784,14 +2026,15 @@
         <v>1</v>
       </c>
       <c r="D17">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E17">
-        <f>D17*B17</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="F17" s="4">
-        <f>E17/60</f>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="G17" s="4">
@@ -4810,14 +2053,15 @@
         <v>1</v>
       </c>
       <c r="D18">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E18">
-        <f>D18*B18</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F18" s="4">
-        <f>E18/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G18" s="4">
@@ -4836,14 +2080,15 @@
         <v>1</v>
       </c>
       <c r="D19">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E19">
-        <f>D19*B19</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="F19" s="4">
-        <f>E19/60</f>
+        <f t="shared" si="1"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="G19" s="4">
@@ -4862,14 +2107,15 @@
         <v>1</v>
       </c>
       <c r="D20">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E20">
-        <f>D20*B20</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="F20" s="4">
-        <f>E20/60</f>
+        <f t="shared" si="1"/>
         <v>2.5333333333333332</v>
       </c>
       <c r="G20" s="4">
@@ -4888,14 +2134,15 @@
         <v>1</v>
       </c>
       <c r="D21">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E21">
-        <f>D21*B21</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="F21" s="4">
-        <f>E21/60</f>
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="G21" s="4">
@@ -4914,14 +2161,15 @@
         <v>1</v>
       </c>
       <c r="D22">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E22">
-        <f>D22*B22</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F22" s="4">
-        <f>E22/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G22" s="4">
@@ -4940,14 +2188,15 @@
         <v>1</v>
       </c>
       <c r="D23">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E23">
-        <f>D23*B23</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F23" s="4">
-        <f>E23/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G23" s="4">
@@ -4966,14 +2215,15 @@
         <v>1</v>
       </c>
       <c r="D24">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E24">
-        <f>D24*B24</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F24" s="4">
-        <f>E24/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G24" s="4">
@@ -4992,14 +2242,15 @@
         <v>1</v>
       </c>
       <c r="D25">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E25">
-        <f>D25*B25</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="F25" s="4">
-        <f>E25/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G25" s="4">
@@ -5018,14 +2269,15 @@
         <v>1</v>
       </c>
       <c r="D26">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E26">
-        <f>D26*B26</f>
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
       <c r="F26" s="4">
-        <f>E26/60</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="G26" s="4">
@@ -5044,14 +2296,15 @@
         <v>1</v>
       </c>
       <c r="D27">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E27">
-        <f>D27*B27</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="F27" s="4">
-        <f>E27/60</f>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="G27" s="4">
@@ -5070,14 +2323,15 @@
         <v>1</v>
       </c>
       <c r="D28">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E28">
-        <f>D28*B28</f>
+        <f t="shared" si="0"/>
         <v>336</v>
       </c>
       <c r="F28" s="4">
-        <f>E28/60</f>
+        <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
       <c r="G28" s="4">
@@ -5096,14 +2350,15 @@
         <v>1</v>
       </c>
       <c r="D29">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E29">
-        <f>D29*B29</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F29" s="4">
-        <f>E29/60</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G29" s="4">
@@ -5122,14 +2377,15 @@
         <v>2</v>
       </c>
       <c r="D30">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E30">
-        <f>D30*B30</f>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="F30" s="4">
-        <f>E30/60</f>
+        <f t="shared" si="1"/>
         <v>20.833333333333332</v>
       </c>
       <c r="G30" s="4">
@@ -5148,14 +2404,15 @@
         <v>2</v>
       </c>
       <c r="D31">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E31">
-        <f>D31*B31</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="F31" s="4">
-        <f>E31/60</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G31" s="4">
@@ -5174,14 +2431,15 @@
         <v>2</v>
       </c>
       <c r="D32">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E32">
-        <f>D32*B32</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="F32" s="4">
-        <f>E32/60</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G32" s="4">
@@ -5200,14 +2458,15 @@
         <v>2</v>
       </c>
       <c r="D33">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E33">
-        <f>D33*B33</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="F33" s="4">
-        <f>E33/60</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="G33" s="4">
@@ -5226,14 +2485,15 @@
         <v>2</v>
       </c>
       <c r="D34">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E34">
-        <f>D34*B34</f>
+        <f t="shared" ref="E34:E65" si="2">D34*B34</f>
         <v>150</v>
       </c>
       <c r="F34" s="4">
-        <f>E34/60</f>
+        <f t="shared" ref="F34:F65" si="3">E34/60</f>
         <v>2.5</v>
       </c>
       <c r="G34" s="4">
@@ -5252,14 +2512,15 @@
         <v>2</v>
       </c>
       <c r="D35">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E35">
-        <f>D35*B35</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F35" s="4">
-        <f>E35/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G35" s="4">
@@ -5278,14 +2539,15 @@
         <v>2</v>
       </c>
       <c r="D36">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E36">
-        <f>D36*B36</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F36" s="4">
-        <f>E36/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G36" s="4">
@@ -5304,14 +2566,15 @@
         <v>2</v>
       </c>
       <c r="D37">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E37">
-        <f>D37*B37</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F37" s="4">
-        <f>E37/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G37" s="4">
@@ -5330,14 +2593,15 @@
         <v>2</v>
       </c>
       <c r="D38">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E38">
-        <f>D38*B38</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F38" s="4">
-        <f>E38/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G38" s="4">
@@ -5356,14 +2620,15 @@
         <v>2</v>
       </c>
       <c r="D39">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E39">
-        <f>D39*B39</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="F39" s="4">
-        <f>E39/60</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G39" s="4">
@@ -5382,14 +2647,15 @@
         <v>2</v>
       </c>
       <c r="D40">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E40">
-        <f>D40*B40</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F40" s="4">
-        <f>E40/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G40" s="4">
@@ -5408,14 +2674,15 @@
         <v>2</v>
       </c>
       <c r="D41">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E41">
-        <f>D41*B41</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F41" s="4">
-        <f>E41/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G41" s="4">
@@ -5434,14 +2701,15 @@
         <v>2</v>
       </c>
       <c r="D42">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E42">
-        <f>D42*B42</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F42" s="4">
-        <f>E42/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G42" s="4">
@@ -5460,14 +2728,15 @@
         <v>2</v>
       </c>
       <c r="D43">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E43">
-        <f>D43*B43</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F43" s="4">
-        <f>E43/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G43" s="4">
@@ -5485,17 +2754,21 @@
       <c r="C44">
         <v>3</v>
       </c>
+      <c r="D44">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
+        <v>1</v>
+      </c>
       <c r="E44">
-        <f>D44*B44</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="F44" s="4">
-        <f>E44/60</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G44" s="4">
         <f>SUM(F$2:F44)</f>
-        <v>253.86666666666667</v>
+        <v>254.70000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5509,19 +2782,20 @@
         <v>3</v>
       </c>
       <c r="D45">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E45">
-        <f>D45*B45</f>
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="F45" s="4">
-        <f>E45/60</f>
+        <f t="shared" si="3"/>
         <v>20.833333333333332</v>
       </c>
       <c r="G45" s="4">
         <f>SUM(F$2:F45)</f>
-        <v>274.7</v>
+        <v>275.53333333333336</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5535,19 +2809,20 @@
         <v>3</v>
       </c>
       <c r="D46">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E46">
-        <f>D46*B46</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="F46" s="4">
-        <f>E46/60</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G46" s="4">
         <f>SUM(F$2:F46)</f>
-        <v>278.7</v>
+        <v>279.53333333333336</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5561,19 +2836,20 @@
         <v>3</v>
       </c>
       <c r="D47">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E47">
-        <f>D47*B47</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="F47" s="4">
-        <f>E47/60</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G47" s="4">
         <f>SUM(F$2:F47)</f>
-        <v>281.7</v>
+        <v>282.53333333333336</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5587,19 +2863,20 @@
         <v>3</v>
       </c>
       <c r="D48">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E48">
-        <f>D48*B48</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="F48" s="4">
-        <f>E48/60</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G48" s="4">
         <f>SUM(F$2:F48)</f>
-        <v>284.7</v>
+        <v>285.53333333333336</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5613,19 +2890,20 @@
         <v>3</v>
       </c>
       <c r="D49">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E49">
-        <f>D49*B49</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="F49" s="4">
-        <f>E49/60</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="G49" s="4">
         <f>SUM(F$2:F49)</f>
-        <v>285.2</v>
+        <v>286.03333333333336</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5639,19 +2917,20 @@
         <v>3</v>
       </c>
       <c r="D50">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E50">
-        <f>D50*B50</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="F50" s="4">
-        <f>E50/60</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="G50" s="4">
         <f>SUM(F$2:F50)</f>
-        <v>286.09999999999997</v>
+        <v>286.93333333333334</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5665,19 +2944,20 @@
         <v>3</v>
       </c>
       <c r="D51">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E51">
-        <f>D51*B51</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F51" s="4">
-        <f>E51/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G51" s="4">
         <f>SUM(F$2:F51)</f>
-        <v>294.09999999999997</v>
+        <v>294.93333333333334</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5691,19 +2971,20 @@
         <v>3</v>
       </c>
       <c r="D52">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E52">
-        <f>D52*B52</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F52" s="4">
-        <f>E52/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G52" s="4">
         <f>SUM(F$2:F52)</f>
-        <v>302.09999999999997</v>
+        <v>302.93333333333334</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5717,19 +2998,20 @@
         <v>3</v>
       </c>
       <c r="D53">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E53">
-        <f>D53*B53</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F53" s="4">
-        <f>E53/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G53" s="4">
         <f>SUM(F$2:F53)</f>
-        <v>310.09999999999997</v>
+        <v>310.93333333333334</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5743,19 +3025,20 @@
         <v>3</v>
       </c>
       <c r="D54">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E54">
-        <f>D54*B54</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F54" s="4">
-        <f>E54/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G54" s="4">
         <f>SUM(F$2:F54)</f>
-        <v>318.09999999999997</v>
+        <v>318.93333333333334</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5769,19 +3052,20 @@
         <v>3</v>
       </c>
       <c r="D55">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E55">
-        <f>D55*B55</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="F55" s="4">
-        <f>E55/60</f>
+        <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
       <c r="G55" s="4">
         <f>SUM(F$2:F55)</f>
-        <v>319.04999999999995</v>
+        <v>319.88333333333333</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5795,19 +3079,20 @@
         <v>3</v>
       </c>
       <c r="D56">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E56">
-        <f>D56*B56</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="F56" s="4">
-        <f>E56/60</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="G56" s="4">
         <f>SUM(F$2:F56)</f>
-        <v>319.94999999999993</v>
+        <v>320.7833333333333</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5821,19 +3106,20 @@
         <v>3</v>
       </c>
       <c r="D57">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E57">
-        <f>D57*B57</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="F57" s="4">
-        <f>E57/60</f>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G57" s="4">
         <f>SUM(F$2:F57)</f>
-        <v>321.04999999999995</v>
+        <v>321.88333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5847,19 +3133,20 @@
         <v>3</v>
       </c>
       <c r="D58">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E58">
-        <f>D58*B58</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="F58" s="4">
-        <f>E58/60</f>
+        <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="G58" s="4">
         <f>SUM(F$2:F58)</f>
-        <v>321.59999999999997</v>
+        <v>322.43333333333334</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5873,19 +3160,20 @@
         <v>3</v>
       </c>
       <c r="D59">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E59">
-        <f>D59*B59</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="F59" s="4">
-        <f>E59/60</f>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="G59" s="4">
         <f>SUM(F$2:F59)</f>
-        <v>324.79999999999995</v>
+        <v>325.63333333333333</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5899,19 +3187,20 @@
         <v>3</v>
       </c>
       <c r="D60">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E60">
-        <f>D60*B60</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F60" s="4">
-        <f>E60/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G60" s="4">
         <f>SUM(F$2:F60)</f>
-        <v>332.79999999999995</v>
+        <v>333.63333333333333</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5925,19 +3214,20 @@
         <v>3</v>
       </c>
       <c r="D61">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E61">
-        <f>D61*B61</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F61" s="4">
-        <f>E61/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G61" s="4">
         <f>SUM(F$2:F61)</f>
-        <v>340.79999999999995</v>
+        <v>341.63333333333333</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5951,19 +3241,20 @@
         <v>3</v>
       </c>
       <c r="D62">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E62">
-        <f>D62*B62</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="F62" s="4">
-        <f>E62/60</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G62" s="4">
         <f>SUM(F$2:F62)</f>
-        <v>348.79999999999995</v>
+        <v>349.63333333333333</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5977,19 +3268,20 @@
         <v>3</v>
       </c>
       <c r="D63">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E63">
-        <f>D63*B63</f>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="F63" s="4">
-        <f>E63/60</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G63" s="4">
         <f>SUM(F$2:F63)</f>
-        <v>350.79999999999995</v>
+        <v>351.63333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6003,19 +3295,20 @@
         <v>3</v>
       </c>
       <c r="D64">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E64">
-        <f>D64*B64</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F64" s="4">
-        <f>E64/60</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G64" s="4">
         <f>SUM(F$2:F64)</f>
-        <v>351.13333333333327</v>
+        <v>351.96666666666664</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6029,19 +3322,20 @@
         <v>3</v>
       </c>
       <c r="D65">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E65">
-        <f>D65*B65</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F65" s="4">
-        <f>E65/60</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G65" s="4">
         <f>SUM(F$2:F65)</f>
-        <v>351.46666666666658</v>
+        <v>352.29999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6055,19 +3349,20 @@
         <v>3</v>
       </c>
       <c r="D66">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E66">
-        <f>D66*B66</f>
+        <f t="shared" ref="E66:E97" si="4">D66*B66</f>
         <v>60</v>
       </c>
       <c r="F66" s="4">
-        <f>E66/60</f>
+        <f t="shared" ref="F66:F97" si="5">E66/60</f>
         <v>1</v>
       </c>
       <c r="G66" s="4">
         <f>SUM(F$2:F66)</f>
-        <v>352.46666666666658</v>
+        <v>353.29999999999995</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6081,19 +3376,20 @@
         <v>3</v>
       </c>
       <c r="D67">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E67">
-        <f>D67*B67</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F67" s="4">
-        <f>E67/60</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G67" s="4">
         <f>SUM(F$2:F67)</f>
-        <v>353.46666666666658</v>
+        <v>354.29999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6107,19 +3403,20 @@
         <v>3</v>
       </c>
       <c r="D68">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E68">
-        <f>D68*B68</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="F68" s="4">
-        <f>E68/60</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G68" s="4">
         <f>SUM(F$2:F68)</f>
-        <v>353.7999999999999</v>
+        <v>354.63333333333327</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6133,19 +3430,20 @@
         <v>3</v>
       </c>
       <c r="D69">
+        <f>VLOOKUP(Table15[[#This Row],[Packaged Product]],Product_Table,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E69">
-        <f>D69*B69</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F69" s="4">
-        <f>E69/60</f>
+        <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G69" s="4">
         <f>SUM(F$2:F69)</f>
-        <v>353.96666666666658</v>
+        <v>354.79999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -6159,16 +3457,16 @@
         <v>4</v>
       </c>
       <c r="E70">
-        <f>D70*B70</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F70" s="4">
-        <f>E70/60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G70" s="4">
         <f>SUM(F$2:F70)</f>
-        <v>353.96666666666658</v>
+        <v>354.79999999999995</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6185,16 +3483,16 @@
         <v>5</v>
       </c>
       <c r="E71">
-        <f>D71*B71</f>
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="F71" s="4">
-        <f>E71/60</f>
+        <f t="shared" si="5"/>
         <v>20.833333333333332</v>
       </c>
       <c r="G71" s="4">
         <f>SUM(F$2:F71)</f>
-        <v>374.7999999999999</v>
+        <v>375.63333333333327</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6211,16 +3509,16 @@
         <v>4</v>
       </c>
       <c r="E72">
-        <f>D72*B72</f>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="F72" s="4">
-        <f>E72/60</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G72" s="4">
         <f>SUM(F$2:F72)</f>
-        <v>378.7999999999999</v>
+        <v>379.63333333333327</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6237,16 +3535,16 @@
         <v>3</v>
       </c>
       <c r="E73">
-        <f>D73*B73</f>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="F73" s="4">
-        <f>E73/60</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G73" s="4">
         <f>SUM(F$2:F73)</f>
-        <v>381.7999999999999</v>
+        <v>382.63333333333327</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6263,16 +3561,16 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <f>D74*B74</f>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="F74" s="4">
-        <f>E74/60</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G74" s="4">
         <f>SUM(F$2:F74)</f>
-        <v>384.7999999999999</v>
+        <v>385.63333333333327</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6289,16 +3587,16 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <f>D75*B75</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="F75" s="4">
-        <f>E75/60</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G75" s="4">
         <f>SUM(F$2:F75)</f>
-        <v>392.7999999999999</v>
+        <v>393.63333333333327</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6315,16 +3613,16 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <f>D76*B76</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="F76" s="4">
-        <f>E76/60</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G76" s="4">
         <f>SUM(F$2:F76)</f>
-        <v>400.7999999999999</v>
+        <v>401.63333333333327</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6341,16 +3639,16 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <f>D77*B77</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="F77" s="4">
-        <f>E77/60</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G77" s="4">
         <f>SUM(F$2:F77)</f>
-        <v>408.7999999999999</v>
+        <v>409.63333333333327</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -6367,16 +3665,16 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <f>D78*B78</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="F78" s="4">
-        <f>E78/60</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G78" s="4">
         <f>SUM(F$2:F78)</f>
-        <v>416.7999999999999</v>
+        <v>417.63333333333327</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6393,16 +3691,16 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <f>D79*B79</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="F79" s="4">
-        <f>E79/60</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G79" s="4">
         <f>SUM(F$2:F79)</f>
-        <v>424.7999999999999</v>
+        <v>425.63333333333327</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -6419,16 +3717,16 @@
         <v>4</v>
       </c>
       <c r="E80">
-        <f>D80*B80</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F80" s="4">
-        <f>E80/60</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G80" s="4">
         <f>SUM(F$2:F80)</f>
-        <v>425.46666666666658</v>
+        <v>426.29999999999995</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -6445,16 +3743,16 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <f>D81*B81</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F81" s="4">
-        <f>E81/60</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G81" s="4">
         <f>SUM(F$2:F81)</f>
-        <v>426.13333333333327</v>
+        <v>426.96666666666664</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6471,16 +3769,16 @@
         <v>4</v>
       </c>
       <c r="E82">
-        <f>D82*B82</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F82" s="4">
-        <f>E82/60</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G82" s="4">
         <f>SUM(F$2:F82)</f>
-        <v>426.79999999999995</v>
+        <v>427.63333333333333</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -6497,16 +3795,16 @@
         <v>4</v>
       </c>
       <c r="E83">
-        <f>D83*B83</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="F83" s="4">
-        <f>E83/60</f>
+        <f t="shared" si="5"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="G83" s="4">
         <f>SUM(F$2:F83)</f>
-        <v>429.46666666666664</v>
+        <v>430.3</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -6523,16 +3821,16 @@
         <v>4</v>
       </c>
       <c r="E84">
-        <f>D84*B84</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="F84" s="4">
-        <f>E84/60</f>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G84" s="4">
         <f>SUM(F$2:F84)</f>
-        <v>430.79999999999995</v>
+        <v>431.63333333333333</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -6549,16 +3847,16 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <f>D85*B85</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="F85" s="4">
-        <f>E85/60</f>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G85" s="4">
         <f>SUM(F$2:F85)</f>
-        <v>432.13333333333327</v>
+        <v>432.96666666666664</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6575,16 +3873,16 @@
         <v>4</v>
       </c>
       <c r="E86">
-        <f>D86*B86</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="F86" s="4">
-        <f>E86/60</f>
+        <f t="shared" si="5"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="G86" s="4">
         <f>SUM(F$2:F86)</f>
-        <v>434.79999999999995</v>
+        <v>435.63333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6601,16 +3899,16 @@
         <v>4</v>
       </c>
       <c r="E87">
-        <f>D87*B87</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="F87" s="4">
-        <f>E87/60</f>
+        <f t="shared" si="5"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="G87" s="4">
         <f>SUM(F$2:F87)</f>
-        <v>437.46666666666664</v>
+        <v>438.3</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6627,16 +3925,16 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <f>D88*B88</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="F88" s="4">
-        <f>E88/60</f>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G88" s="4">
         <f>SUM(F$2:F88)</f>
-        <v>438.79999999999995</v>
+        <v>439.63333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6653,16 +3951,16 @@
         <v>4</v>
       </c>
       <c r="E89">
-        <f>D89*B89</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="F89" s="4">
-        <f>E89/60</f>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G89" s="4">
         <f>SUM(F$2:F89)</f>
-        <v>440.13333333333327</v>
+        <v>440.96666666666664</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6679,16 +3977,16 @@
         <v>4</v>
       </c>
       <c r="E90">
-        <f>D90*B90</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="F90" s="4">
-        <f>E90/60</f>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G90" s="4">
         <f>SUM(F$2:F90)</f>
-        <v>441.46666666666658</v>
+        <v>442.29999999999995</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6705,16 +4003,16 @@
         <v>4</v>
       </c>
       <c r="E91">
-        <f>D91*B91</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="F91" s="4">
-        <f>E91/60</f>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G91" s="4">
         <f>SUM(F$2:F91)</f>
-        <v>442.7999999999999</v>
+        <v>443.63333333333327</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6731,16 +4029,16 @@
         <v>4</v>
       </c>
       <c r="E92">
-        <f>D92*B92</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F92" s="4">
-        <f>E92/60</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G92" s="4">
         <f>SUM(F$2:F92)</f>
-        <v>443.46666666666658</v>
+        <v>444.29999999999995</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6757,16 +4055,16 @@
         <v>4</v>
       </c>
       <c r="E93">
-        <f>D93*B93</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F93" s="4">
-        <f>E93/60</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G93" s="4">
         <f>SUM(F$2:F93)</f>
-        <v>444.13333333333327</v>
+        <v>444.96666666666664</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -6783,16 +4081,16 @@
         <v>4</v>
       </c>
       <c r="E94">
-        <f>D94*B94</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F94" s="4">
-        <f>E94/60</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G94" s="4">
         <f>SUM(F$2:F94)</f>
-        <v>444.79999999999995</v>
+        <v>445.63333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6809,16 +4107,16 @@
         <v>4</v>
       </c>
       <c r="E95">
-        <f>D95*B95</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F95" s="4">
-        <f>E95/60</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G95" s="4">
         <f>SUM(F$2:F95)</f>
-        <v>445.46666666666664</v>
+        <v>446.3</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -6835,16 +4133,16 @@
         <v>4</v>
       </c>
       <c r="E96">
-        <f>D96*B96</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F96" s="4">
-        <f>E96/60</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G96" s="4">
         <f>SUM(F$2:F96)</f>
-        <v>446.13333333333333</v>
+        <v>446.9666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -6861,16 +4159,16 @@
         <v>4</v>
       </c>
       <c r="E97">
-        <f>D97*B97</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F97" s="4">
-        <f>E97/60</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G97" s="4">
         <f>SUM(F$2:F97)</f>
-        <v>446.8</v>
+        <v>447.63333333333338</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -6887,16 +4185,16 @@
         <v>4</v>
       </c>
       <c r="E98">
-        <f>D98*B98</f>
+        <f t="shared" ref="E98:E113" si="6">D98*B98</f>
         <v>80</v>
       </c>
       <c r="F98" s="4">
-        <f>E98/60</f>
+        <f t="shared" ref="F98:F113" si="7">E98/60</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="G98" s="4">
         <f>SUM(F$2:F98)</f>
-        <v>448.13333333333333</v>
+        <v>448.9666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -6913,16 +4211,16 @@
         <v>4</v>
       </c>
       <c r="E99">
-        <f>D99*B99</f>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="F99" s="4">
-        <f>E99/60</f>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="G99" s="4">
         <f>SUM(F$2:F99)</f>
-        <v>450.33333333333331</v>
+        <v>451.16666666666669</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -6939,16 +4237,16 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <f>D100*B100</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F100" s="4">
-        <f>E100/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G100" s="4">
         <f>SUM(F$2:F100)</f>
-        <v>458.33333333333331</v>
+        <v>459.16666666666669</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -6965,16 +4263,16 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <f>D101*B101</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F101" s="4">
-        <f>E101/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G101" s="4">
         <f>SUM(F$2:F101)</f>
-        <v>466.33333333333331</v>
+        <v>467.16666666666669</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -6991,16 +4289,16 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <f>D102*B102</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F102" s="4">
-        <f>E102/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G102" s="4">
         <f>SUM(F$2:F102)</f>
-        <v>474.33333333333331</v>
+        <v>475.16666666666669</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7017,16 +4315,16 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <f>D103*B103</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F103" s="4">
-        <f>E103/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G103" s="4">
         <f>SUM(F$2:F103)</f>
-        <v>482.33333333333331</v>
+        <v>483.16666666666669</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7043,16 +4341,16 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <f>D104*B104</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F104" s="4">
-        <f>E104/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G104" s="4">
         <f>SUM(F$2:F104)</f>
-        <v>490.33333333333331</v>
+        <v>491.16666666666669</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7069,16 +4367,16 @@
         <v>5</v>
       </c>
       <c r="E105">
-        <f>D105*B105</f>
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="F105" s="4">
-        <f>E105/60</f>
+        <f t="shared" si="7"/>
         <v>20.833333333333332</v>
       </c>
       <c r="G105" s="4">
         <f>SUM(F$2:F105)</f>
-        <v>511.16666666666663</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7095,16 +4393,16 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <f>D106*B106</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F106" s="4">
-        <f>E106/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G106" s="4">
         <f>SUM(F$2:F106)</f>
-        <v>519.16666666666663</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7121,16 +4419,16 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <f>D107*B107</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F107" s="4">
-        <f>E107/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G107" s="4">
         <f>SUM(F$2:F107)</f>
-        <v>527.16666666666663</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7147,16 +4445,16 @@
         <v>8</v>
       </c>
       <c r="E108">
-        <f>D108*B108</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F108" s="4">
-        <f>E108/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G108" s="4">
         <f>SUM(F$2:F108)</f>
-        <v>535.16666666666663</v>
+        <v>536</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -7173,16 +4471,16 @@
         <v>8</v>
       </c>
       <c r="E109">
-        <f>D109*B109</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F109" s="4">
-        <f>E109/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G109" s="4">
         <f>SUM(F$2:F109)</f>
-        <v>543.16666666666663</v>
+        <v>544</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -7199,16 +4497,16 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <f>D110*B110</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F110" s="4">
-        <f>E110/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G110" s="4">
         <f>SUM(F$2:F110)</f>
-        <v>551.16666666666663</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7225,16 +4523,16 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <f>D111*B111</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F111" s="4">
-        <f>E111/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G111" s="4">
         <f>SUM(F$2:F111)</f>
-        <v>559.16666666666663</v>
+        <v>560</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -7251,16 +4549,16 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <f>D112*B112</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="F112" s="4">
-        <f>E112/60</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G112" s="4">
         <f>SUM(F$2:F112)</f>
-        <v>567.16666666666663</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -7277,16 +4575,16 @@
         <v>5</v>
       </c>
       <c r="E113">
-        <f>D113*B113</f>
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="F113" s="4">
-        <f>E113/60</f>
+        <f t="shared" si="7"/>
         <v>20.833333333333332</v>
       </c>
       <c r="G113" s="4">
         <f>SUM(F$2:F113)</f>
-        <v>588</v>
+        <v>588.83333333333337</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -7317,7 +4615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
@@ -8919,12 +6217,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -8949,7 +6247,7 @@
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -8967,7 +6265,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -8985,7 +6283,7 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -9003,7 +6301,7 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -9021,7 +6319,7 @@
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -9039,7 +6337,7 @@
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -9057,7 +6355,7 @@
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
@@ -9075,7 +6373,7 @@
       <c r="B16">
         <v>8</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -9093,7 +6391,7 @@
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
@@ -9111,7 +6409,7 @@
       <c r="B20">
         <v>8</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -9129,7 +6427,7 @@
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -9147,7 +6445,7 @@
       <c r="B24">
         <v>8</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -9165,7 +6463,7 @@
       <c r="B26">
         <v>8</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -9183,7 +6481,7 @@
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
@@ -9201,7 +6499,7 @@
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
@@ -9219,7 +6517,7 @@
       <c r="B32">
         <v>8</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
@@ -9237,7 +6535,7 @@
       <c r="B34">
         <v>4</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
@@ -9255,7 +6553,7 @@
       <c r="B36">
         <v>4</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
@@ -9273,7 +6571,7 @@
       <c r="B38">
         <v>4</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
@@ -9291,7 +6589,7 @@
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
@@ -9309,7 +6607,7 @@
       <c r="B42">
         <v>8</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
@@ -9327,7 +6625,7 @@
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
@@ -9345,7 +6643,7 @@
       <c r="B46">
         <v>8</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
@@ -9363,7 +6661,7 @@
       <c r="B48">
         <v>8</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
@@ -9381,7 +6679,7 @@
       <c r="B50">
         <v>8</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
@@ -9399,7 +6697,7 @@
       <c r="B52">
         <v>8</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
@@ -9417,7 +6715,7 @@
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
@@ -9435,7 +6733,7 @@
       <c r="B56">
         <v>2</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
@@ -9453,7 +6751,7 @@
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
@@ -9471,7 +6769,7 @@
       <c r="B60">
         <v>4</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
@@ -9489,7 +6787,7 @@
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
@@ -9507,7 +6805,7 @@
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
@@ -9525,7 +6823,7 @@
       <c r="B66">
         <v>3</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
@@ -9543,91 +6841,91 @@
       <c r="B68">
         <v>5</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6">
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="F70" s="9"/>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6">
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="F72" s="9"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6">
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="F74" s="9"/>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6">
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="F76" s="9"/>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6">
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="F78" s="9"/>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6">
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="F80" s="9"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="6:6">
-      <c r="F82" s="9"/>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="6:6">
-      <c r="F84" s="9"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="6:6">
-      <c r="F86" s="9"/>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="6:6">
-      <c r="F88" s="9"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="6:6">
-      <c r="F90" s="9"/>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="6:6">
-      <c r="F92" s="9"/>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="6:6">
-      <c r="F94" s="9"/>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="6:6">
-      <c r="F96" s="9"/>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="2"/>
@@ -9646,7 +6944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P89"/>
   <sheetViews>
